--- a/大学物理实验/实验十八 电子和场/实验十八 电子和场.xlsx
+++ b/大学物理实验/实验十八 电子和场/实验十八 电子和场.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\笔记\大学物理实验\实验十八 电子和场\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234250EB-649A-43D1-9864-D946A870DA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,128 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t>V2=600V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2=800V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/mm</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/V</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电偏转（垂直方向）测量数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I正向/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I反向/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I平均/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -45,15 +165,418 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +589,1353 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>DY-Vd </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>V2=600V</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.23008976708898146"/>
+                  <c:y val="5.5811473127672833E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D71-49A5-8E36-4DC0B11F37D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>V2=800V</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.21898047836775245"/>
+                  <c:y val="-8.9964806627962305E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-26.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-15.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000076-9D71-49A5-8E36-4DC0B11F37D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1394633472"/>
+        <c:axId val="1394635392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1394633472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>DY/mm</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1394635392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1394635392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Vd/V</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1394633472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>391681</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>92579</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14242</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62ED0EE6-6908-F1F3-9E96-F411E32A3FD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -329,14 +2199,539 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="107" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-25</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-20</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-15</v>
+      </c>
+      <c r="G5" s="6">
+        <v>-10</v>
+      </c>
+      <c r="H5" s="6">
+        <v>-5</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>5</v>
+      </c>
+      <c r="K5" s="6">
+        <v>10</v>
+      </c>
+      <c r="L5" s="6">
+        <v>15</v>
+      </c>
+      <c r="M5" s="6">
+        <v>20</v>
+      </c>
+      <c r="N5" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-16</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-12.2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>-8.1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K6" s="5">
+        <v>8</v>
+      </c>
+      <c r="L6" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="M6" s="5">
+        <v>15.7</v>
+      </c>
+      <c r="N6" s="8">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-25</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-20</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-15</v>
+      </c>
+      <c r="G7" s="5">
+        <v>-10</v>
+      </c>
+      <c r="H7" s="5">
+        <v>-5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+      <c r="K7" s="5">
+        <v>10</v>
+      </c>
+      <c r="L7" s="5">
+        <v>15</v>
+      </c>
+      <c r="M7" s="5">
+        <v>20</v>
+      </c>
+      <c r="N7" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9">
+        <v>-26.3</v>
+      </c>
+      <c r="E8" s="9">
+        <v>-21</v>
+      </c>
+      <c r="F8" s="9">
+        <v>-15.7</v>
+      </c>
+      <c r="G8" s="9">
+        <v>-10.4</v>
+      </c>
+      <c r="H8" s="9">
+        <v>-5.2</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="K8" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="L8" s="9">
+        <v>15.4</v>
+      </c>
+      <c r="M8" s="9">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="N8" s="10">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15">
+        <v>0.64</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15">
+        <v>0.69</v>
+      </c>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="2:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="26">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="G14" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D10:G10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>